--- a/results/reports/tables/familiarity/paired_sample_test.xlsx
+++ b/results/reports/tables/familiarity/paired_sample_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zzhiyong/Documents/03-Codes/iLMSelection-v2.0/results/reports/tables/familiarity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E35F4A1-1A2B-314E-9831-996480362A45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF915859-6D3E-6147-A307-44EF8F5B69AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37220" yWindow="9520" windowWidth="27640" windowHeight="16940" xr2:uid="{8486FA19-F61C-3E43-9622-61B0CF78B0DC}"/>
+    <workbookView xWindow="3380" yWindow="2900" windowWidth="27640" windowHeight="16940" xr2:uid="{8486FA19-F61C-3E43-9622-61B0CF78B0DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,8 +93,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -418,7 +421,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -427,17 +430,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -467,25 +470,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.76400000000000001</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="C3" s="1">
         <v>0.63400000000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>0.129</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.108</v>
+        <v>0.125</v>
       </c>
       <c r="F3" s="1">
-        <v>4.944</v>
+        <v>3.4060000000000001</v>
       </c>
       <c r="G3" s="1">
         <v>16</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -493,39 +496,39 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1.448</v>
+        <v>1.4330000000000001</v>
       </c>
       <c r="C4" s="1">
         <v>1.5980000000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-0.15</v>
+        <v>-0.16400000000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.189</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="F4" s="1">
-        <v>-3.2749999999999999</v>
+        <v>-3.419</v>
       </c>
       <c r="G4" s="1">
         <v>16</v>
       </c>
       <c r="H4" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
@@ -554,52 +557,52 @@
       <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="2">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="C10" s="2">
         <v>0.78600000000000003</v>
       </c>
-      <c r="D10" s="1">
-        <v>-0.14399999999999999</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="F10" s="1">
-        <v>-3.5510000000000002</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="D10" s="2">
+        <v>-0.127</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-3.0950000000000002</v>
+      </c>
+      <c r="G10" s="2">
         <v>16</v>
       </c>
-      <c r="H10" s="1">
-        <v>3.0000000000000001E-3</v>
+      <c r="H10" s="2">
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B11">
-        <v>1.6</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="2">
+        <v>1.577</v>
+      </c>
+      <c r="C11" s="2">
         <v>1.425</v>
       </c>
-      <c r="D11" s="1">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2.9569999999999999</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="D11" s="2">
+        <v>0.152</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2.206</v>
+      </c>
+      <c r="G11" s="2">
         <v>16</v>
       </c>
-      <c r="H11" s="1">
-        <v>8.9999999999999993E-3</v>
+      <c r="H11" s="2">
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
   </sheetData>
